--- a/expressions.xlsx
+++ b/expressions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnson/Documents/C-Compiler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanzx\Source\Repos\C-Compiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12780" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="12780" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -224,20 +224,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -509,26 +512,26 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C18" sqref="C18:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>20</v>
@@ -564,7 +567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -598,11 +601,11 @@
       <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -636,9 +639,9 @@
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -672,9 +675,9 @@
       <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -708,11 +711,11 @@
       <c r="K5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -746,9 +749,9 @@
       <c r="K6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -782,11 +785,11 @@
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -820,9 +823,9 @@
       <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -856,11 +859,11 @@
       <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -894,9 +897,9 @@
       <c r="K10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -930,9 +933,9 @@
       <c r="K11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -966,11 +969,11 @@
       <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1004,9 +1007,9 @@
       <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1040,9 +1043,9 @@
       <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1076,9 +1079,9 @@
       <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1112,9 +1115,9 @@
       <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1148,47 +1151,47 @@
       <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
